--- a/config_12.15/fish_use_config.xlsx
+++ b/config_12.15/fish_use_config.xlsx
@@ -143,7 +143,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +171,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,7 +212,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -245,6 +251,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2607,11 +2622,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D153" sqref="D153"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q169" sqref="Q169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5010,6 +5025,88 @@
       </c>
       <c r="C175" s="13"/>
     </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="14">
+        <v>175</v>
+      </c>
+      <c r="B176" s="15">
+        <v>6</v>
+      </c>
+      <c r="C176" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="14">
+        <v>176</v>
+      </c>
+      <c r="B177" s="15">
+        <v>7</v>
+      </c>
+      <c r="C177" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="14">
+        <v>177</v>
+      </c>
+      <c r="B178" s="15">
+        <v>8</v>
+      </c>
+      <c r="C178" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="14">
+        <v>178</v>
+      </c>
+      <c r="B179" s="15">
+        <v>9</v>
+      </c>
+      <c r="C179" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="14">
+        <v>179</v>
+      </c>
+      <c r="B180" s="15">
+        <v>10</v>
+      </c>
+      <c r="C180" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="14">
+        <v>180</v>
+      </c>
+      <c r="B181" s="15">
+        <v>35</v>
+      </c>
+      <c r="C181" s="16"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="14">
+        <v>181</v>
+      </c>
+      <c r="B182" s="15">
+        <v>35</v>
+      </c>
+      <c r="C182" s="16"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="14">
+        <v>182</v>
+      </c>
+      <c r="B183" s="15">
+        <v>35</v>
+      </c>
+      <c r="C183" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
